--- a/2024NANP_EntericGasData.xlsx
+++ b/2024NANP_EntericGasData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoni/Desktop/Leoni/Lectures/NANP/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8946C2-607B-2348-AA53-6C310608B8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B003D2-85FB-2941-AEA4-E8D16FAD7598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A4C3B276-3433-0840-84A2-E78103B8F3CD}"/>
   </bookViews>
@@ -71,13 +71,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Con</t>
+    <t>X</t>
   </si>
   <si>
-    <t>SF1</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>SF2</t>
+    <t>Z</t>
   </si>
 </sst>
 </file>
